--- a/biology/Zoologie/Cassidulus/Cassidulus.xlsx
+++ b/biology/Zoologie/Cassidulus/Cassidulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cassidulus est un genre d'oursins dits « irréguliers », appartenant à la famille des Cassidulidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cassiduloida sont des oursins irréguliers, au corps légèrement ovoïde ; leur bouche est avancée vers un côté, dépourvue de lanterne d'Aristote, leur face aborale est convexe et leur face orale plane.
 Les oursins de cette famille ont un petit test ovale et légèrement allongé, s'élargissant vers l'arrière avec une face orale plate. 
@@ -521,8 +535,8 @@
 Le péristome est pentagonal, et s'ouvre par une paroi verticale. Les plaques basicoronales sont courtes. On note la présence de radioles périorales spécialisées sur des tubercules de même, mais confinés au vestibule buccal. 
 Les phyllodes sont élargis, avec des pores uniques. On note également des pores buccaux. 
 Le périprocte est supramarginal à marginal, allongé transversalement, associé à un léger rebord subanal ou une courte dépression anale. 
-On note la présence d'une large zone sternale nue et ponctuée devant et derrière le péristome[2].
-Ce genre semble être apparu à l'Éocène supérieur[2].
+On note la présence d'une large zone sternale nue et ponctuée devant et derrière le péristome.
+Ce genre semble être apparu à l'Éocène supérieur.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (10 juin 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (10 juin 2014) :
 Cassidulus berryi Kellum, 1926 †
 Cassidulus caribaearum Lamarck, 1801 -- Caraïbes
 Cassidulus conradi (Conrad, 1850) †
